--- a/BackTest/2020-01-20 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-20 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-185.3532</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-210.2532</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-209.3603</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-209.0709</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-208.3409</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-159.1692</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-168.7985</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-160.4469</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-165.7537</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-169.22</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-106.6135</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-123.0273</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-108.4214</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-84.72129999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-87.72129999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-80.68819999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-77.68819999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-79.31429999999997</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-82.31419999999997</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-198.3862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-195.707</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-195.707</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-198.0211</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-195.4431</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-195.1944999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-195.4735999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-207.4735999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-180.3985</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-190.3985</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-190.3784999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-195.6035999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-197.3273</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-221.3273</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-228.5234</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-231.6221</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-231.6221</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-259.6523</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-254.82277211</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-187.82277211</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-127.20077211</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>453.48194262</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-579.61164803</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-672.1431897500001</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-672.1431897500001</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-672.1431897500001</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-672.1431897500001</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-672.1331897500002</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-670.2776897500001</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-670.2676897500002</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-669.8660897500002</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-670.2060897500003</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-671.9009897500002</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-717.0619897500002</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-672.4055897500002</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -13948,10 +13948,14 @@
         <v>-854.1244294599995</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>57000</v>
+      </c>
+      <c r="J411" t="n">
+        <v>57000</v>
+      </c>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
@@ -13981,11 +13985,19 @@
         <v>-854.1244294599995</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>57000</v>
+      </c>
+      <c r="J412" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14026,19 @@
         <v>-849.6783294599995</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>57000</v>
+      </c>
+      <c r="J413" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,10 +14067,14 @@
         <v>-835.2008294599996</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>57050</v>
+      </c>
+      <c r="J414" t="n">
+        <v>57050</v>
+      </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14080,11 +14104,19 @@
         <v>-847.4184294599995</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>57750</v>
+      </c>
+      <c r="J415" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14116,8 +14148,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>57050</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14283,17 @@
         <v>-935.3088294599995</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>56000</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14322,17 @@
         <v>-938.2097294599995</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>56000</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14361,17 @@
         <v>-949.0373294599995</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>55850</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14400,17 @@
         <v>-947.0273294599995</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>55700</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14439,17 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>55950</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14478,17 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>56000</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14517,17 @@
         <v>-852.8530294599994</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>56000</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14556,17 @@
         <v>-851.4688294599995</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>56250</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14599,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14636,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14673,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14710,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14747,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14784,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14821,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14858,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14895,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14932,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +14969,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15006,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15043,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15080,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15117,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15154,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15191,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15228,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15265,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15302,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15339,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15376,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15413,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15450,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15483,17 @@
         <v>-1257.52274026</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>55150</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15522,17 @@
         <v>-1256.6398959</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>55550</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15561,17 @@
         <v>-1257.40318726</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>55900</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15600,17 @@
         <v>-1262.40318726</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>55600</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15639,17 @@
         <v>-1303.12628726</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>55500</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,15 +15678,17 @@
         <v>-1302.30708726</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>55150</v>
       </c>
-      <c r="J457" t="n">
-        <v>55150</v>
-      </c>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,15 +15717,15 @@
         <v>-1295.60708726</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>55150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>55850</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L458" t="n">
@@ -15542,15 +15756,15 @@
         <v>-1293.12578726</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>55150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L459" t="n">
@@ -15581,11 +15795,17 @@
         <v>-1274.17328726</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>56100</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15614,11 +15834,17 @@
         <v>-1262.42438726</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>56150</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15647,11 +15873,17 @@
         <v>-1262.42438726</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>56500</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15680,11 +15912,17 @@
         <v>-1264.24038726</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>56500</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15713,11 +15951,17 @@
         <v>-1264.24038726</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>56000</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15746,11 +15990,17 @@
         <v>-1275.13098726</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>56000</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15779,11 +16029,17 @@
         <v>-1278.779787259999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>55850</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15812,7 +16068,7 @@
         <v>-1349.864987259999</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>55700</v>
@@ -15820,7 +16076,7 @@
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L467" t="n">
@@ -15851,7 +16107,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>55500</v>
@@ -15890,7 +16146,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>55250</v>
@@ -15929,7 +16185,7 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>55250</v>
@@ -15946,6 +16202,6 @@
       <c r="M470" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-20 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-185.3532</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-210.2532</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-209.3603</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-209.0709</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-208.3409</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-159.1692</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-168.7985</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-163.4469</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-160.4469</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-165.7537</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-168.7537</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-169.22</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-123.0273</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-108.4214</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-80.68819999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-77.68819999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-79.31429999999997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-82.31419999999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-198.3862</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-195.707</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-195.707</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-198.0211</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-195.4431</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-195.1944999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-195.4735999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-207.4735999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-180.3985</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-190.3985</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-190.3784999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-195.6035999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-197.3273</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-221.3273</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-228.5234</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-231.6221</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-231.6221</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-259.6523</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-254.82277211</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-187.82277211</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-127.20077211</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-222.3989049200001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-223.97518401</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-227.0172840100001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-268.4421840100001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-131.4421840100001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>418.71261599</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>407.76082242</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>405.76082242</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>410.87402242</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>429.09452242</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>449.66282242</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>444.54962242</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>454.59664262</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>458.09804262</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>459.94134262</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-697.3761897500001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-670.2676897500002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-671.8909897500002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-671.8809897500003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-671.6229897500002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -13948,14 +13948,10 @@
         <v>-854.1244294599995</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>57000</v>
-      </c>
-      <c r="J411" t="n">
-        <v>57000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
@@ -13985,19 +13981,11 @@
         <v>-854.1244294599995</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>57000</v>
-      </c>
-      <c r="J412" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14026,19 +14014,11 @@
         <v>-849.6783294599995</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>57000</v>
-      </c>
-      <c r="J413" t="n">
-        <v>57000</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14067,14 +14047,10 @@
         <v>-835.2008294599996</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>57050</v>
-      </c>
-      <c r="J414" t="n">
-        <v>57050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14104,19 +14080,11 @@
         <v>-847.4184294599995</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>57750</v>
-      </c>
-      <c r="J415" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14148,14 +14116,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>57050</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14283,173 +14245,171 @@
         <v>-935.3088294599995</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>55850</v>
+      </c>
+      <c r="C421" t="n">
+        <v>55850</v>
+      </c>
+      <c r="D421" t="n">
+        <v>55850</v>
+      </c>
+      <c r="E421" t="n">
+        <v>55850</v>
+      </c>
+      <c r="F421" t="n">
+        <v>2.9009</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-938.2097294599995</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
         <v>56000</v>
       </c>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
+      <c r="J421" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>55700</v>
+      </c>
+      <c r="C422" t="n">
+        <v>55700</v>
+      </c>
+      <c r="D422" t="n">
+        <v>55700</v>
+      </c>
+      <c r="E422" t="n">
+        <v>55700</v>
+      </c>
+      <c r="F422" t="n">
+        <v>10.8276</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-949.0373294599995</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>55850</v>
+      </c>
+      <c r="J422" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>55950</v>
+      </c>
+      <c r="C423" t="n">
+        <v>55950</v>
+      </c>
+      <c r="D423" t="n">
+        <v>55950</v>
+      </c>
+      <c r="E423" t="n">
+        <v>55950</v>
+      </c>
+      <c r="F423" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-947.0273294599995</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>55700</v>
+      </c>
+      <c r="J423" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C424" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D424" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E424" t="n">
+        <v>55950</v>
+      </c>
+      <c r="F424" t="n">
+        <v>83.7608</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-863.2665294599994</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J424" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K424" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>55850</v>
-      </c>
-      <c r="C421" t="n">
-        <v>55850</v>
-      </c>
-      <c r="D421" t="n">
-        <v>55850</v>
-      </c>
-      <c r="E421" t="n">
-        <v>55850</v>
-      </c>
-      <c r="F421" t="n">
-        <v>2.9009</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-938.2097294599995</v>
-      </c>
-      <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>55700</v>
-      </c>
-      <c r="C422" t="n">
-        <v>55700</v>
-      </c>
-      <c r="D422" t="n">
-        <v>55700</v>
-      </c>
-      <c r="E422" t="n">
-        <v>55700</v>
-      </c>
-      <c r="F422" t="n">
-        <v>10.8276</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-949.0373294599995</v>
-      </c>
-      <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>55850</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>55950</v>
-      </c>
-      <c r="C423" t="n">
-        <v>55950</v>
-      </c>
-      <c r="D423" t="n">
-        <v>55950</v>
-      </c>
-      <c r="E423" t="n">
-        <v>55950</v>
-      </c>
-      <c r="F423" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-947.0273294599995</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>55700</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C424" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D424" t="n">
-        <v>56000</v>
-      </c>
-      <c r="E424" t="n">
-        <v>55950</v>
-      </c>
-      <c r="F424" t="n">
-        <v>83.7608</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-863.2665294599994</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>55950</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14483,7 +14443,9 @@
       <c r="I425" t="n">
         <v>56000</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>56000</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14522,7 +14484,9 @@
       <c r="I426" t="n">
         <v>56000</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>56000</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,7 +14525,9 @@
       <c r="I427" t="n">
         <v>56250</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>56000</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,7 +14564,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>56000</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14635,7 +14603,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>56000</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,7 +14642,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>56000</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,7 +14681,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>56000</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14746,7 +14720,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>56000</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14783,7 +14759,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>56000</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,7 +14798,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>56000</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,7 +14837,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>56000</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,7 +14876,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>56000</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,7 +14915,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>56000</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14968,7 +14954,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>56000</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15005,7 +14993,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>56000</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,7 +15032,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>56000</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,7 +15071,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>56000</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15116,7 +15110,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>56000</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15153,7 +15149,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>56000</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15190,7 +15188,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>56000</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,7 +15227,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>56000</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15264,7 +15266,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>56000</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,7 +15305,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>56000</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15338,7 +15344,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>56000</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15375,7 +15383,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>56000</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,7 +15422,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>56000</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15449,7 +15461,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>56000</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15483,12 +15497,12 @@
         <v>-1257.52274026</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>55150</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>56000</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15522,12 +15536,12 @@
         <v>-1256.6398959</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>55550</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>56000</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15561,12 +15575,12 @@
         <v>-1257.40318726</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>55900</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>56000</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,12 +15614,12 @@
         <v>-1262.40318726</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>55600</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>56000</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,12 +15653,12 @@
         <v>-1303.12628726</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>55500</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>56000</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,12 +15692,12 @@
         <v>-1302.30708726</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>55150</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>56000</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15717,12 +15731,12 @@
         <v>-1295.60708726</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>55850</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>56000</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15756,12 +15770,12 @@
         <v>-1293.12578726</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>55950</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>56000</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,12 +15809,12 @@
         <v>-1274.17328726</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>56100</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>56000</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15834,12 +15848,12 @@
         <v>-1262.42438726</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>56150</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>56000</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15873,12 +15887,12 @@
         <v>-1262.42438726</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>56000</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15912,12 +15926,12 @@
         <v>-1264.24038726</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>56000</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,12 +15965,12 @@
         <v>-1264.24038726</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
         <v>56000</v>
       </c>
-      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15990,12 +16004,12 @@
         <v>-1275.13098726</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
         <v>56000</v>
       </c>
-      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16029,12 +16043,12 @@
         <v>-1278.779787259999</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>55850</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>56000</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,12 +16082,12 @@
         <v>-1349.864987259999</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>55700</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>56000</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,12 +16121,12 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>55500</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>56000</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,12 +16160,12 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>55250</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>56000</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16185,12 +16199,12 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>55250</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>56000</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,6 +16216,6 @@
       <c r="M470" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-20 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>-185.3532</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-168.7985</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-166.5937</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-123.0273</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-112.9283</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-108.4214</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-99.83709999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-100.0615</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-96.72139999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-84.72129999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-87.72129999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-80.68819999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-77.68819999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-79.31429999999997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-82.31419999999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-82.88349999999997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-149.7664</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-198.3862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-195.707</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-198.0211</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-199.8261</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-195.1944999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-195.4735999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-207.4735999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-184.3985</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-180.3985</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-190.3985</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-222.3989049200001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-223.0024049200001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-249.1290049200001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-240.7984049200001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-223.97518401</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-227.0172840100001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-268.4421840100001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-131.4421840100001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>418.71261599</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>417.76082242</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>407.76082242</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>405.76082242</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>410.87402242</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>429.09452242</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>449.66282242</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>444.54962242</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>454.59664262</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>452.10654262</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>458.10654262</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>458.09804262</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>459.94134262</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-697.3761897500001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-670.2676897500002</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-669.7376897500002</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-671.8909897500002</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-671.8809897500003</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-671.6229897500002</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -14278,14 +14278,10 @@
         <v>-938.2097294599995</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J421" t="n">
-        <v>56000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14315,19 +14311,11 @@
         <v>-949.0373294599995</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>55850</v>
-      </c>
-      <c r="J422" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14356,19 +14344,11 @@
         <v>-947.0273294599995</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>55700</v>
-      </c>
-      <c r="J423" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14397,1624 +14377,1376 @@
         <v>-863.2665294599994</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C425" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D425" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E425" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-863.2665294599994</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C426" t="n">
+        <v>56250</v>
+      </c>
+      <c r="D426" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E426" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F426" t="n">
+        <v>10.4135</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-852.8530294599994</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C427" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D427" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E427" t="n">
+        <v>56800</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1.3842</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-851.4688294599995</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C428" t="n">
+        <v>56250</v>
+      </c>
+      <c r="D428" t="n">
+        <v>56850</v>
+      </c>
+      <c r="E428" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F428" t="n">
+        <v>12.94527862</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-864.4141080799994</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>56350</v>
+      </c>
+      <c r="C429" t="n">
+        <v>56350</v>
+      </c>
+      <c r="D429" t="n">
+        <v>56350</v>
+      </c>
+      <c r="E429" t="n">
+        <v>56350</v>
+      </c>
+      <c r="F429" t="n">
+        <v>37.0665</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-827.3476080799994</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>57750</v>
+      </c>
+      <c r="C430" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D430" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E430" t="n">
+        <v>57750</v>
+      </c>
+      <c r="F430" t="n">
+        <v>6.46616782</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-820.8814402599994</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C431" t="n">
+        <v>57600</v>
+      </c>
+      <c r="D431" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E431" t="n">
+        <v>57600</v>
+      </c>
+      <c r="F431" t="n">
+        <v>4.1478</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-825.0292402599994</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>57550</v>
+      </c>
+      <c r="C432" t="n">
+        <v>57550</v>
+      </c>
+      <c r="D432" t="n">
+        <v>57550</v>
+      </c>
+      <c r="E432" t="n">
+        <v>57550</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-826.0292402599994</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C433" t="n">
+        <v>57700</v>
+      </c>
+      <c r="D433" t="n">
+        <v>57700</v>
+      </c>
+      <c r="E433" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F433" t="n">
+        <v>2.0798</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-823.9494402599994</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>57800</v>
+      </c>
+      <c r="C434" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D434" t="n">
+        <v>57950</v>
+      </c>
+      <c r="E434" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F434" t="n">
+        <v>20</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-803.9494402599994</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C435" t="n">
+        <v>57600</v>
+      </c>
+      <c r="D435" t="n">
+        <v>57600</v>
+      </c>
+      <c r="E435" t="n">
+        <v>57600</v>
+      </c>
+      <c r="F435" t="n">
+        <v>3.5388</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-807.4882402599994</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>57150</v>
+      </c>
+      <c r="C436" t="n">
+        <v>56750</v>
+      </c>
+      <c r="D436" t="n">
+        <v>57150</v>
+      </c>
+      <c r="E436" t="n">
+        <v>56750</v>
+      </c>
+      <c r="F436" t="n">
+        <v>15.6949</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-823.1831402599994</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C437" t="n">
+        <v>56300</v>
+      </c>
+      <c r="D437" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E437" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F437" t="n">
+        <v>110</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-933.1831402599994</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C438" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D438" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E438" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-933.1731402599994</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>57050</v>
+      </c>
+      <c r="C439" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D439" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E439" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.0446</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-933.1731402599994</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C440" t="n">
+        <v>57050</v>
+      </c>
+      <c r="D440" t="n">
+        <v>57050</v>
+      </c>
+      <c r="E440" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F440" t="n">
+        <v>3.3536</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-933.1731402599994</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C441" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D441" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E441" t="n">
+        <v>57300</v>
+      </c>
+      <c r="F441" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-931.0351402599994</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C442" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D442" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E442" t="n">
+        <v>57300</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1.6145</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-931.0351402599994</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>57650</v>
+      </c>
+      <c r="C443" t="n">
+        <v>57650</v>
+      </c>
+      <c r="D443" t="n">
+        <v>57650</v>
+      </c>
+      <c r="E443" t="n">
+        <v>57650</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-931.0251402599994</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>57100</v>
+      </c>
+      <c r="C444" t="n">
+        <v>57100</v>
+      </c>
+      <c r="D444" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E444" t="n">
+        <v>57100</v>
+      </c>
+      <c r="F444" t="n">
+        <v>1.8993</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-932.9244402599994</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C445" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D445" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E445" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F445" t="n">
+        <v>18.5229</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-951.4473402599995</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C446" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D446" t="n">
+        <v>56600</v>
+      </c>
+      <c r="E446" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F446" t="n">
+        <v>7.2581</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-951.4473402599995</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C447" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D447" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E447" t="n">
+        <v>56050</v>
+      </c>
+      <c r="F447" t="n">
+        <v>23.2724</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-974.7197402599994</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>56050</v>
+      </c>
+      <c r="C448" t="n">
+        <v>56050</v>
+      </c>
+      <c r="D448" t="n">
+        <v>56050</v>
+      </c>
+      <c r="E448" t="n">
+        <v>56050</v>
+      </c>
+      <c r="F448" t="n">
+        <v>154.9897</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-1129.709440259999</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>56050</v>
+      </c>
+      <c r="C449" t="n">
+        <v>55500</v>
+      </c>
+      <c r="D449" t="n">
+        <v>56050</v>
+      </c>
+      <c r="E449" t="n">
+        <v>55500</v>
+      </c>
+      <c r="F449" t="n">
+        <v>106.5486</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-1236.258040259999</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>55400</v>
+      </c>
+      <c r="C450" t="n">
+        <v>55150</v>
+      </c>
+      <c r="D450" t="n">
+        <v>55400</v>
+      </c>
+      <c r="E450" t="n">
+        <v>55150</v>
+      </c>
+      <c r="F450" t="n">
+        <v>29.0522</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-1265.31024026</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>55150</v>
+      </c>
+      <c r="C451" t="n">
+        <v>55150</v>
+      </c>
+      <c r="D451" t="n">
+        <v>55150</v>
+      </c>
+      <c r="E451" t="n">
+        <v>55150</v>
+      </c>
+      <c r="F451" t="n">
+        <v>2.0788</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-1265.31024026</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>55400</v>
+      </c>
+      <c r="C452" t="n">
+        <v>55550</v>
+      </c>
+      <c r="D452" t="n">
+        <v>55550</v>
+      </c>
+      <c r="E452" t="n">
+        <v>55350</v>
+      </c>
+      <c r="F452" t="n">
+        <v>7.7875</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-1257.52274026</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>55900</v>
+      </c>
+      <c r="C453" t="n">
+        <v>55900</v>
+      </c>
+      <c r="D453" t="n">
+        <v>55900</v>
+      </c>
+      <c r="E453" t="n">
+        <v>55900</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.88284436</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-1256.6398959</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>55600</v>
+      </c>
+      <c r="C454" t="n">
+        <v>55600</v>
+      </c>
+      <c r="D454" t="n">
+        <v>55600</v>
+      </c>
+      <c r="E454" t="n">
+        <v>55600</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.76329136</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-1257.40318726</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>55500</v>
+      </c>
+      <c r="C455" t="n">
+        <v>55500</v>
+      </c>
+      <c r="D455" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E455" t="n">
+        <v>55500</v>
+      </c>
+      <c r="F455" t="n">
+        <v>5</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-1262.40318726</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>55400</v>
+      </c>
+      <c r="C456" t="n">
+        <v>55150</v>
+      </c>
+      <c r="D456" t="n">
+        <v>55400</v>
+      </c>
+      <c r="E456" t="n">
+        <v>55150</v>
+      </c>
+      <c r="F456" t="n">
+        <v>40.7231</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-1303.12628726</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>55850</v>
+      </c>
+      <c r="C457" t="n">
+        <v>55850</v>
+      </c>
+      <c r="D457" t="n">
+        <v>55850</v>
+      </c>
+      <c r="E457" t="n">
+        <v>55850</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.8192</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-1302.30708726</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
         <v>55950</v>
       </c>
-      <c r="J424" t="n">
+      <c r="C458" t="n">
+        <v>55950</v>
+      </c>
+      <c r="D458" t="n">
+        <v>55950</v>
+      </c>
+      <c r="E458" t="n">
+        <v>55950</v>
+      </c>
+      <c r="F458" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-1295.60708726</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>56100</v>
+      </c>
+      <c r="C459" t="n">
+        <v>56100</v>
+      </c>
+      <c r="D459" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E459" t="n">
+        <v>56100</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2.4813</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-1293.12578726</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>56150</v>
+      </c>
+      <c r="C460" t="n">
+        <v>56150</v>
+      </c>
+      <c r="D460" t="n">
+        <v>56150</v>
+      </c>
+      <c r="E460" t="n">
+        <v>56150</v>
+      </c>
+      <c r="F460" t="n">
+        <v>18.9525</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-1274.17328726</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C461" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D461" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E461" t="n">
+        <v>56400</v>
+      </c>
+      <c r="F461" t="n">
+        <v>11.7489</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-1262.42438726</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>56500</v>
+      </c>
+      <c r="C462" t="n">
+        <v>56500</v>
+      </c>
+      <c r="D462" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E462" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-1262.42438726</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
         <v>56000</v>
       </c>
-      <c r="K424" t="inlineStr">
+      <c r="C463" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E463" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-1264.24038726</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F464" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-1264.24038726</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J464" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C465" t="n">
+        <v>55850</v>
+      </c>
+      <c r="D465" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E465" t="n">
+        <v>55850</v>
+      </c>
+      <c r="F465" t="n">
+        <v>10.8906</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-1275.13098726</v>
+      </c>
+      <c r="H465" t="n">
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J465" t="n">
+        <v>56000</v>
+      </c>
+      <c r="K465" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="E425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0.0571</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-863.2665294599994</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J425" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>56300</v>
-      </c>
-      <c r="C426" t="n">
-        <v>56250</v>
-      </c>
-      <c r="D426" t="n">
-        <v>56300</v>
-      </c>
-      <c r="E426" t="n">
-        <v>56250</v>
-      </c>
-      <c r="F426" t="n">
-        <v>10.4135</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-852.8530294599994</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>56000</v>
-      </c>
-      <c r="J426" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C427" t="n">
-        <v>56800</v>
-      </c>
-      <c r="D427" t="n">
-        <v>56800</v>
-      </c>
-      <c r="E427" t="n">
-        <v>56800</v>
-      </c>
-      <c r="F427" t="n">
-        <v>1.3842</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-851.4688294599995</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>56250</v>
-      </c>
-      <c r="J427" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>56800</v>
-      </c>
-      <c r="C428" t="n">
-        <v>56250</v>
-      </c>
-      <c r="D428" t="n">
-        <v>56850</v>
-      </c>
-      <c r="E428" t="n">
-        <v>56250</v>
-      </c>
-      <c r="F428" t="n">
-        <v>12.94527862</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-864.4141080799994</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>56350</v>
-      </c>
-      <c r="C429" t="n">
-        <v>56350</v>
-      </c>
-      <c r="D429" t="n">
-        <v>56350</v>
-      </c>
-      <c r="E429" t="n">
-        <v>56350</v>
-      </c>
-      <c r="F429" t="n">
-        <v>37.0665</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-827.3476080799994</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>57750</v>
-      </c>
-      <c r="C430" t="n">
-        <v>57800</v>
-      </c>
-      <c r="D430" t="n">
-        <v>57800</v>
-      </c>
-      <c r="E430" t="n">
-        <v>57750</v>
-      </c>
-      <c r="F430" t="n">
-        <v>6.46616782</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-820.8814402599994</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>57600</v>
-      </c>
-      <c r="C431" t="n">
-        <v>57600</v>
-      </c>
-      <c r="D431" t="n">
-        <v>57600</v>
-      </c>
-      <c r="E431" t="n">
-        <v>57600</v>
-      </c>
-      <c r="F431" t="n">
-        <v>4.1478</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-825.0292402599994</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>57550</v>
-      </c>
-      <c r="C432" t="n">
-        <v>57550</v>
-      </c>
-      <c r="D432" t="n">
-        <v>57550</v>
-      </c>
-      <c r="E432" t="n">
-        <v>57550</v>
-      </c>
-      <c r="F432" t="n">
-        <v>1</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-826.0292402599994</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>57700</v>
-      </c>
-      <c r="C433" t="n">
-        <v>57700</v>
-      </c>
-      <c r="D433" t="n">
-        <v>57700</v>
-      </c>
-      <c r="E433" t="n">
-        <v>57700</v>
-      </c>
-      <c r="F433" t="n">
-        <v>2.0798</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-823.9494402599994</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>57800</v>
-      </c>
-      <c r="C434" t="n">
-        <v>57950</v>
-      </c>
-      <c r="D434" t="n">
-        <v>57950</v>
-      </c>
-      <c r="E434" t="n">
-        <v>57800</v>
-      </c>
-      <c r="F434" t="n">
-        <v>20</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-803.9494402599994</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>57600</v>
-      </c>
-      <c r="C435" t="n">
-        <v>57600</v>
-      </c>
-      <c r="D435" t="n">
-        <v>57600</v>
-      </c>
-      <c r="E435" t="n">
-        <v>57600</v>
-      </c>
-      <c r="F435" t="n">
-        <v>3.5388</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-807.4882402599994</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>57150</v>
-      </c>
-      <c r="C436" t="n">
-        <v>56750</v>
-      </c>
-      <c r="D436" t="n">
-        <v>57150</v>
-      </c>
-      <c r="E436" t="n">
-        <v>56750</v>
-      </c>
-      <c r="F436" t="n">
-        <v>15.6949</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-823.1831402599994</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C437" t="n">
-        <v>56300</v>
-      </c>
-      <c r="D437" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E437" t="n">
-        <v>56300</v>
-      </c>
-      <c r="F437" t="n">
-        <v>110</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-933.1831402599994</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C438" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D438" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E438" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-933.1731402599994</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>57050</v>
-      </c>
-      <c r="C439" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D439" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E439" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F439" t="n">
-        <v>0.0446</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-933.1731402599994</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C440" t="n">
-        <v>57050</v>
-      </c>
-      <c r="D440" t="n">
-        <v>57050</v>
-      </c>
-      <c r="E440" t="n">
-        <v>57000</v>
-      </c>
-      <c r="F440" t="n">
-        <v>3.3536</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-933.1731402599994</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C441" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D441" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E441" t="n">
-        <v>57300</v>
-      </c>
-      <c r="F441" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-931.0351402599994</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>57300</v>
-      </c>
-      <c r="C442" t="n">
-        <v>57300</v>
-      </c>
-      <c r="D442" t="n">
-        <v>57300</v>
-      </c>
-      <c r="E442" t="n">
-        <v>57300</v>
-      </c>
-      <c r="F442" t="n">
-        <v>1.6145</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-931.0351402599994</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>57650</v>
-      </c>
-      <c r="C443" t="n">
-        <v>57650</v>
-      </c>
-      <c r="D443" t="n">
-        <v>57650</v>
-      </c>
-      <c r="E443" t="n">
-        <v>57650</v>
-      </c>
-      <c r="F443" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-931.0251402599994</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>57100</v>
-      </c>
-      <c r="C444" t="n">
-        <v>57100</v>
-      </c>
-      <c r="D444" t="n">
-        <v>57100</v>
-      </c>
-      <c r="E444" t="n">
-        <v>57100</v>
-      </c>
-      <c r="F444" t="n">
-        <v>1.8993</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-932.9244402599994</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C445" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D445" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E445" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F445" t="n">
-        <v>18.5229</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-951.4473402599995</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>56600</v>
-      </c>
-      <c r="C446" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D446" t="n">
-        <v>56600</v>
-      </c>
-      <c r="E446" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F446" t="n">
-        <v>7.2581</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-951.4473402599995</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C447" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D447" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E447" t="n">
-        <v>56050</v>
-      </c>
-      <c r="F447" t="n">
-        <v>23.2724</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-974.7197402599994</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>56050</v>
-      </c>
-      <c r="C448" t="n">
-        <v>56050</v>
-      </c>
-      <c r="D448" t="n">
-        <v>56050</v>
-      </c>
-      <c r="E448" t="n">
-        <v>56050</v>
-      </c>
-      <c r="F448" t="n">
-        <v>154.9897</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-1129.709440259999</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>56050</v>
-      </c>
-      <c r="C449" t="n">
-        <v>55500</v>
-      </c>
-      <c r="D449" t="n">
-        <v>56050</v>
-      </c>
-      <c r="E449" t="n">
-        <v>55500</v>
-      </c>
-      <c r="F449" t="n">
-        <v>106.5486</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-1236.258040259999</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>55400</v>
-      </c>
-      <c r="C450" t="n">
-        <v>55150</v>
-      </c>
-      <c r="D450" t="n">
-        <v>55400</v>
-      </c>
-      <c r="E450" t="n">
-        <v>55150</v>
-      </c>
-      <c r="F450" t="n">
-        <v>29.0522</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-1265.31024026</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>55150</v>
-      </c>
-      <c r="C451" t="n">
-        <v>55150</v>
-      </c>
-      <c r="D451" t="n">
-        <v>55150</v>
-      </c>
-      <c r="E451" t="n">
-        <v>55150</v>
-      </c>
-      <c r="F451" t="n">
-        <v>2.0788</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-1265.31024026</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>55400</v>
-      </c>
-      <c r="C452" t="n">
-        <v>55550</v>
-      </c>
-      <c r="D452" t="n">
-        <v>55550</v>
-      </c>
-      <c r="E452" t="n">
-        <v>55350</v>
-      </c>
-      <c r="F452" t="n">
-        <v>7.7875</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-1257.52274026</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>55900</v>
-      </c>
-      <c r="C453" t="n">
-        <v>55900</v>
-      </c>
-      <c r="D453" t="n">
-        <v>55900</v>
-      </c>
-      <c r="E453" t="n">
-        <v>55900</v>
-      </c>
-      <c r="F453" t="n">
-        <v>0.88284436</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-1256.6398959</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>55600</v>
-      </c>
-      <c r="C454" t="n">
-        <v>55600</v>
-      </c>
-      <c r="D454" t="n">
-        <v>55600</v>
-      </c>
-      <c r="E454" t="n">
-        <v>55600</v>
-      </c>
-      <c r="F454" t="n">
-        <v>0.76329136</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-1257.40318726</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>55500</v>
-      </c>
-      <c r="C455" t="n">
-        <v>55500</v>
-      </c>
-      <c r="D455" t="n">
-        <v>55500</v>
-      </c>
-      <c r="E455" t="n">
-        <v>55500</v>
-      </c>
-      <c r="F455" t="n">
-        <v>5</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-1262.40318726</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>55400</v>
-      </c>
-      <c r="C456" t="n">
-        <v>55150</v>
-      </c>
-      <c r="D456" t="n">
-        <v>55400</v>
-      </c>
-      <c r="E456" t="n">
-        <v>55150</v>
-      </c>
-      <c r="F456" t="n">
-        <v>40.7231</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-1303.12628726</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>55850</v>
-      </c>
-      <c r="C457" t="n">
-        <v>55850</v>
-      </c>
-      <c r="D457" t="n">
-        <v>55850</v>
-      </c>
-      <c r="E457" t="n">
-        <v>55850</v>
-      </c>
-      <c r="F457" t="n">
-        <v>0.8192</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-1302.30708726</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>55950</v>
-      </c>
-      <c r="C458" t="n">
-        <v>55950</v>
-      </c>
-      <c r="D458" t="n">
-        <v>55950</v>
-      </c>
-      <c r="E458" t="n">
-        <v>55950</v>
-      </c>
-      <c r="F458" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-1295.60708726</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>56100</v>
-      </c>
-      <c r="C459" t="n">
-        <v>56100</v>
-      </c>
-      <c r="D459" t="n">
-        <v>56100</v>
-      </c>
-      <c r="E459" t="n">
-        <v>56100</v>
-      </c>
-      <c r="F459" t="n">
-        <v>2.4813</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-1293.12578726</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>56150</v>
-      </c>
-      <c r="C460" t="n">
-        <v>56150</v>
-      </c>
-      <c r="D460" t="n">
-        <v>56150</v>
-      </c>
-      <c r="E460" t="n">
-        <v>56150</v>
-      </c>
-      <c r="F460" t="n">
-        <v>18.9525</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-1274.17328726</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>56400</v>
-      </c>
-      <c r="C461" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D461" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E461" t="n">
-        <v>56400</v>
-      </c>
-      <c r="F461" t="n">
-        <v>11.7489</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-1262.42438726</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>56500</v>
-      </c>
-      <c r="C462" t="n">
-        <v>56500</v>
-      </c>
-      <c r="D462" t="n">
-        <v>56500</v>
-      </c>
-      <c r="E462" t="n">
-        <v>56500</v>
-      </c>
-      <c r="F462" t="n">
-        <v>0.0578</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-1262.42438726</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C463" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D463" t="n">
-        <v>56000</v>
-      </c>
-      <c r="E463" t="n">
-        <v>56000</v>
-      </c>
-      <c r="F463" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-1264.24038726</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C464" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D464" t="n">
-        <v>56000</v>
-      </c>
-      <c r="E464" t="n">
-        <v>56000</v>
-      </c>
-      <c r="F464" t="n">
-        <v>3.149</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-1264.24038726</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C465" t="n">
-        <v>55850</v>
-      </c>
-      <c r="D465" t="n">
-        <v>56000</v>
-      </c>
-      <c r="E465" t="n">
-        <v>55850</v>
-      </c>
-      <c r="F465" t="n">
-        <v>10.8906</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-1275.13098726</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>56000</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16043,9 +15775,11 @@
         <v>-1278.779787259999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>55850</v>
+      </c>
       <c r="J466" t="n">
         <v>56000</v>
       </c>
@@ -16082,9 +15816,11 @@
         <v>-1349.864987259999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>55700</v>
+      </c>
       <c r="J467" t="n">
         <v>56000</v>
       </c>
@@ -16121,9 +15857,11 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>55500</v>
+      </c>
       <c r="J468" t="n">
         <v>56000</v>
       </c>
@@ -16160,9 +15898,11 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>55250</v>
+      </c>
       <c r="J469" t="n">
         <v>56000</v>
       </c>
@@ -16199,9 +15939,11 @@
         <v>-1354.140387259999</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>55250</v>
+      </c>
       <c r="J470" t="n">
         <v>56000</v>
       </c>
